--- a/medicine/Psychotrope/Liste_des_distilleries_de_rhum/Liste_des_distilleries_de_rhum.xlsx
+++ b/medicine/Psychotrope/Liste_des_distilleries_de_rhum/Liste_des_distilleries_de_rhum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhum est distillé par des producteurs présents dans diverses parties du monde.
 </t>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anguilla
-Pyrat
- Antigua-et-Barbuda
-Antigua Distillery Ltd (Cavalier, English Harbour)
+          <t xml:space="preserve"> Anguilla</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pyrat</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antigua-et-Barbuda</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antigua Distillery Ltd (Cavalier, English Harbour)
 Bambu Rum
 Hanschell Inniss Ltd. (Cockspur Rum)
 Caribbean Spirit/Twelve Islands Shipping Co (Malibu)
@@ -525,33 +576,237 @@
 St Nicholas Abbey 10-year-old Rum
 Mahiki Rum
 Mount Gay Rum
-West indies distillery
- Belize
-Traveller's Liquors, Ltd. (One barrel rum)
-Cuello's Distillery
- Bermudes
-Gosling Brothers, Ltd. (Gosling's Rum)
- Cuba
-Havana Club
+West indies distillery</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belize</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Traveller's Liquors, Ltd. (One barrel rum)
+Cuello's Distillery</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bermudes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gosling Brothers, Ltd. (Gosling's Rum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuba</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Havana Club
 Caribbean Club
 Varadero
 Caney
 Mulata
 Palmas Paticruzado
 Pinilla
-Santiago
- Dominique
-Soca Rum
+Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dominique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Soca Rum
 Red Cap
-oliver's
- Grenade
-Eastern Caribbean Rum Company
+oliver's</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grenade</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Eastern Caribbean Rum Company
 Canne Royale Rum
 Westerhall Plantation
 Clarkes Court Distillery
-River Antoine
- Guadeloupe
-Damoiseau
+River Antoine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guadeloupe</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Damoiseau
 Montebello
 Bologne
 Longueteau
@@ -560,29 +815,234 @@
 Bellevue
 Reimonenq
 Séverin
-Bonne Mère (SIS Société Industrielle de Sucrerie’)[1]
- Haïti
-Rhum Barbancourt
+Bonne Mère (SIS Société Industrielle de Sucrerie’)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haïti</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Rhum Barbancourt
 Distillerie Larue
 Distillerie Casimir (Clairin Casimir)
 Distillerie Chelo (Clairin Sajous)
 Distillerie Arawaks (Clairin Vaval)
 Distillerie Bethel Romelus (Clairin Le Rocher)
-Rhum Old Nick
- Îles Caïmans
-Cayman Islands Distillery (Seven Fathoms Rum)
- Îles Vierges britanniques
-Pusser's Ltd. (Pusser's)
- Îles Vierges des États-Unis
-Virgin Islands Rum Industries, Inc (Cruzan, Old St. Croix)
-William Grant &amp; Sons (Sailor Jerry)
- Jamaïque
-Appleton Estate
+Rhum Old Nick</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Îles Caïmans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cayman Islands Distillery (Seven Fathoms Rum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Îles Vierges britanniques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pusser's Ltd. (Pusser's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Îles Vierges des États-Unis</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Virgin Islands Rum Industries, Inc (Cruzan, Old St. Croix)
+William Grant &amp; Sons (Sailor Jerry)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jamaïque</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Appleton Estate
 Myers's
 The Rum Company (Coruba)
 Long pond
-Hampden
- Martinique
+Hampden</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Martinique</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Saint-James (1888).
 			Distillerie Depaz.
 			Distillerie J.M.
@@ -594,11 +1054,45 @@
 Distillerie Simon (Le François)
 Distillerie JM (Macouba)
 Distillerie La Favorite (Le Lamentin)
-Distillerie A1710[2] (Le François)
+Distillerie A1710 (Le François)
 Distillerie du Galion (Trinité)
-Distillerie HBS (Grand'Rivière)[3].
- Porto Rico
-Bacardi (part of American Whiskey Trail)
+Distillerie HBS (Grand'Rivière).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Porto Rico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bacardi (part of American Whiskey Trail)
 Captain Morgan
 Don Q
 Ron del Barrilito
@@ -608,30 +1102,234 @@
 Ron Rico
 Ron Cañita Cura'o (Extra Strength)
 Pitorro Coquí
-Palo Viejo
- République dominicaine
-Brugal
+Palo Viejo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République dominicaine</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Brugal
 Bermúdez
 Barceló
 Pedro Justo Carrión &amp; Co. (Macorix Brand)
 Ron Atlantico
 Siboney
 Oliver &amp; Oliver (Cubaney, Opthimus, Guantanamera, Cubanacan, Samana, PuntaCana Club)
-Matusalem
- Saint-Christophe-et-Niévès
-Brinley Gold Rum
-Cane Spirit Rothschild (no longer produced)
- Sainte-Lucie
-Bounty Rum
+Matusalem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint-Christophe-et-Niévès</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Brinley Gold Rum
+Cane Spirit Rothschild (no longer produced)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sainte-Lucie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bounty Rum
 Elements 8
-Chairman’s
- Saint-Martin
-Rhum island
-Rhum Gouverneur 1648
- Saint-Vincent-et-les-Grenadines
-Sunset Rum
- Trinité-et-Tobago
-Angostura Rums (Angostura 1824, Angostura 1919, Old Oak, Royal Oak)
+Chairman’s</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint-Martin</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Rhum island
+Rhum Gouverneur 1648</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sunset Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trinité-et-Tobago</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Angostura Rums (Angostura 1824, Angostura 1919, Old Oak, Royal Oak)
 Fernandes Rums (Fernandes Black Label, Forres Park, Vat 19)
 10 Cane (Moet Hennessy)
 Zaya Rum
@@ -640,80 +1338,527 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Amérique latine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Argentine
-Isla Ñ Rum
- Brésil
-Oronoco Rum
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentine</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Isla Ñ Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brésil</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Oronoco Rum
 Ron Montilla
-Ron Cachaça (Aguacana)
- Costa Rica
-Ron Centenario
-Ronrico
- Colombie
-Licorera del Caribe (Bolivar) (Ron Tres Esquinas)
+Ron Cachaça (Aguacana)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ron Centenario
+Ronrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colombie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Licorera del Caribe (Bolivar) (Ron Tres Esquinas)
 Licorera de Antioquia (Ron Medellín)
 Licorera de Caldas (Ron Viejo de Caldas)
 Licores de Cundinamarca (Ron Santafé)
 Licorera del Valle (Ron Blanco)*
-Ron Dictador
- Équateur
-Cristal Limón
- Guatemala
-Ron Zacapa
+Ron Dictador</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Équateur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cristal Limón</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guatemala</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ron Zacapa
 Ron Botran
 Zaya
 Venado
 Quetzalteca
-Montecristo
- Guyana
-El Dorado
+Montecristo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guyana</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>El Dorado
 Lemon Hart
 Wood's Old Navy
 Banks XM
 Plantation Rum (West Indies rum barbade et Une partie de Long pond établissement Ferrand Ferrand cognac gin citadelle et plantation rum)
-diamonds
- Guyane
-Saint-Maurice
- Mexique
-Porfidio
-D'Risti Especial Rum Reserve and Special White Rum, Bacardi also makes two of their products here-Anejo and Solera
- Nicaragua
-Compañía Licorera de Nicaragua, S.A. (Flor de Caña and Ron Plata)
- Suriname
-Suriname Alcoholic Beverages (Borgoe ' 89, Black cat)
- Panama
-Varela Hermanos
-Abuelo
- Pérou
-Ron Cartavio
- Venezuela
-Cacique
+diamonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guyane</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Saint-Maurice</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexique</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Porfidio
+D'Risti Especial Rum Reserve and Special White Rum, Bacardi also makes two of their products here-Anejo and Solera</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nicaragua</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Compañía Licorera de Nicaragua, S.A. (Flor de Caña and Ron Plata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suriname</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Suriname Alcoholic Beverages (Borgoe ' 89, Black cat)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Panama</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Varela Hermanos
+Abuelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pérou</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ron Cartavio</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venezuela</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cacique
 Ocumare
 Pampero
 Diplomático
@@ -724,141 +1869,531 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Allemagne
-Asmussen
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Asmussen
 Balle
 Boddel
 Braasch
 Hansen
 Johannsen
 Pott
-Sonnberg
- Autriche
-Stroh (flavored rum)
- Belgique
-Distillerie de Namur
- Bulgarie
-Atlantic Red
- Danemark
-A.H. Riise
- Espagne
-Arehucas
-Artemi
- France métropolitaine
-Distillerie Breizh'Cool
+Sonnberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Stroh (flavored rum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Distillerie de Namur</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulgarie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Atlantic Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danemark</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.H. Riise
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Arehucas
+Artemi</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France métropolitaine</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Distillerie Breizh'Cool
 Distillerie Moon Harbour à Bordeaux
 Distillerie Baptiste
 Distillerie BOWS
-Distillerie Coqlicorne[4]
- Pays-Bas
-E &amp; A Scheer BV Pologne
+Distillerie Coqlicorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>E &amp; A Scheer BV Pologne
 Golden Rum
-Rum Seniorita
- Royaume-Uni
-Black Tot Naval Rum</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Rum Seniorita</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Black Tot Naval Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Océan Indien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La Réunion
-Charrette
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Réunion</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Charrette
 Isautier
 Rivière du Mât
-Savanna
- Madagascar
-Dzama
- Maurice
-Chamarel
+Savanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Océan Indien</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madagascar</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dzama</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Océan Indien</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maurice</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Chamarel
 Green Island
 Mascareignes (La Bourdonnais)
 Saint-Aubin
 Starr
 New Grove
-Arcane (canne à sucre de l'Ile Maurice, mais pas distillé sur l'Ile)
- Seychelles
-Takamaka Bay rum (white, coco and dark)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Arcane (canne à sucre de l'Ile Maurice, mais pas distillé sur l'Ile)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Océan Indien</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seychelles</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Takamaka Bay rum (white, coco and dark)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Inde
-Old Monk
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inde</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Old Monk
 Hercules
 Black Fort XXX
 Old Port
@@ -869,107 +2404,491 @@
 Tiger
 Golconda
 Old Cascade
-Orissa Pride Rum
- Japon
-Suntory
- Népal
-The Nepal Distillery (Khukri rum)
- Philippines
-Tondeña
+Orissa Pride Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japon</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Suntory</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Népal</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>The Nepal Distillery (Khukri rum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippines</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Tondeña
 Tanduay
-Don Papa
- Sri Lanka
-Rockland
+Don Papa</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rockland
 DCSL
-White Diamond
- Taïwan
-Taiwan Rum
- Thaïlande
-Issan Rum
+White Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Taïwan</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Taiwan Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thaïlande</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Issan Rum
 SangSom</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Pacifique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fidji
-Seven Tiki
- Hawaï
-Braddah Kimo's Extreme 155 Proof
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fidji</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Seven Tiki</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pacifique</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hawaï</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Braddah Kimo's Extreme 155 Proof
 Maui Dark Rum
-Maui Platinum Rum
- Tahiti
-Tahiti Dark
+Maui Platinum Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Pacifique</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tahiti</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tahiti Dark
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Autres pays</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Afrique du Sud
-Mainstray
-Red Heart
- Australie
-Bundaberg
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mainstray
+Red Heart</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bundaberg
 Beenleigh
-Inner Circle
- Canada
-Lamb's
+Inner Circle</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Lamb's
 Newfoundland Screech
 London Dock
 Old Sam
 Yukon Hootch
-Cabot Tower
- États-Unis
-Old New Orleans Rum (Crystal, Amber, Cajun Spice, 10 Year Special Edition
+Cabot Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_rhum</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Old New Orleans Rum (Crystal, Amber, Cajun Spice, 10 Year Special Edition
 New Holland
 Prichard's Fine Rum
 Felton and Son
